--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4431,4 +4432,1998 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007280</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根日本精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6426,4 +6427,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6435,7 +6436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6446,17 +6447,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6466,14 +6487,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.68</v>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6482,14 +6525,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.09999999999999</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6498,13 +6563,1351 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007280</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根日本精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>51</v>
       </c>
       <c r="D4" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
         <v>64.84</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7822,7 +7823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7833,17 +7834,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7853,14 +7874,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.69</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7869,14 +7912,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.68</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7885,14 +7950,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.09999999999999</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7901,13 +7988,1481 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007280</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根日本精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>51</v>
       </c>
       <c r="D5" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
         <v>64.84</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9361,7 +9362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9372,17 +9373,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9392,14 +9413,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.1</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9408,14 +9451,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.69</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9424,14 +9489,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.68</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9440,14 +9527,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.09999999999999</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9456,13 +9565,1799 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>51</v>
       </c>
       <c r="D6" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
         <v>64.84</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>27.17</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>12.69</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>25.68</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>72.09999999999999</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>51</v>
       </c>
       <c r="D7" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
         <v>64.84</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2460,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3998,7 +4831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5377,2000 +6210,6 @@
       </c>
       <c r="H36" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>112.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.6337</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009714</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.3822</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010336</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1178</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501065</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富经典成长定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4856</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002387</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4549</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全沪港深两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4191</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011162</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时港股通领先趋势混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2387</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9594</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011296</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008371</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安汇智精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7632</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6226</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012744</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5882</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3881</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3843</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3541</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009877</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银内核驱动股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3075</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012208</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18.32</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2968</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004871</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银金融地产混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2355</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011163</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时港股通领先趋势混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2274</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2152</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2050</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008290</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安现代生活混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1566</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1294</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005534</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>70.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0924</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008026</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005029</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银产业精选混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007280</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>上投摩根日本精选股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>61.27</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010312</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中银金融地产混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>012758</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>78.68</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007512</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>011297</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>74.18</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>378006</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>78.68</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7435,36 +6274,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001875</t>
+          <t>005379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
+          <t>汇添富价值创造定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>173.54</t>
+          <t>112.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>95.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.8160</t>
+          <t>5.6337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7473,36 +6312,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>009714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>华安聚优精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>101.17</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.9147</t>
+          <t>3.3822</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7511,36 +6350,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005379</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富价值创造定期开放混合</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>132.50</t>
+          <t>59.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.9828</t>
+          <t>3.1178</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7549,36 +6388,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>74.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.4698</t>
+          <t>1.4856</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7587,36 +6426,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>31.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.2254</t>
+          <t>1.4549</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -7625,36 +6464,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>141.39</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>85.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.6723</t>
+          <t>1.4191</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -7663,36 +6502,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>011162</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>博时港股通领先趋势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>38.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.02</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.3241</t>
+          <t>1.2387</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -7701,36 +6540,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31.42</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>82.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.1837</t>
+          <t>0.9594</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -7739,36 +6578,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>011296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>19.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77.45</t>
+          <t>74.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.0180</t>
+          <t>0.8204</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -7777,36 +6616,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002387</t>
+          <t>008371</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>华安汇智精选两年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.9847</t>
+          <t>0.7632</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -7815,36 +6654,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006299</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒越核心精选混合A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>60.32</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.9785</t>
+          <t>0.6226</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7853,36 +6692,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>43.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.8372</t>
+          <t>0.5882</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7891,36 +6730,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.6127</t>
+          <t>0.3881</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -7929,36 +6768,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36.23</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5543</t>
+          <t>0.3843</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -7967,32 +6806,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.21</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5427</t>
+          <t>0.3541</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -8005,36 +6844,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>009877</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>中银内核驱动股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.2034</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -8043,36 +6882,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>012208</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37.87</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.2005</t>
+          <t>0.2968</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -8081,32 +6920,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007193</t>
+          <t>004871</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恒越核心精选混合C</t>
+          <t>中银金融地产混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.9558</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -8119,36 +6958,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>011163</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>博时港股通领先趋势混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.2274</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -8157,36 +6996,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.29</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.7703</t>
+          <t>0.2152</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -8195,36 +7034,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>008025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>汇添富稳健增长混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.5676</t>
+          <t>0.2050</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -8233,36 +7072,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.5305</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -8271,36 +7110,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>008290</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>华安现代生活混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>86.24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.4976</t>
+          <t>0.1566</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -8309,32 +7148,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009877</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银内核驱动股票</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.4186</t>
+          <t>0.1294</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -8347,32 +7186,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>005534</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>华夏新时代灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>70.39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.4110</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -8385,36 +7224,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -8423,36 +7262,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011163</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2854</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -8461,32 +7300,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008025</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇添富稳健增长混合A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2791</t>
+          <t>0.0797</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -8499,36 +7338,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2294</t>
+          <t>0.0785</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -8537,32 +7376,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005534</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1492</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -8575,32 +7414,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -8613,36 +7452,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>008026</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>汇添富稳健增长混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1223</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -8651,32 +7490,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1174</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -8689,36 +7528,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>005029</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>中银产业精选混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.0464</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -8727,36 +7566,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>007280</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>上投摩根日本精选股票（QDII）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -8765,36 +7604,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>61.27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -8803,36 +7642,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008026</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>汇添富稳健增长混合C</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0988</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -8841,36 +7680,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>005255</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0979</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -8879,36 +7718,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>010312</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>中银金融地产混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0823</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -8917,32 +7756,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -8955,36 +7794,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005255</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>43.76</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -8993,36 +7832,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007280</t>
+          <t>002230</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上投摩根日本精选股票（QDII）</t>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -9031,36 +7870,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005029</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中银产业精选混合</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -9069,32 +7908,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>004091</t>
+          <t>012209</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -9107,32 +7946,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -9145,36 +7984,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>080006</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长盛环球行业混合(QDII)</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -9183,32 +8022,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>011297</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>74.18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -9231,26 +8070,26 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -9259,36 +8098,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>378006</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -9307,26 +8146,26 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -9345,26 +8184,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9373,6 +8212,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.8160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>132.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9828</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>141.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9847</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7703</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根日本精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06098-碧桂园服务.xlsx
+++ b/数据整理/stocks/港股/06098-碧桂园服务.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>11.34</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>27.17</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>12.69</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>25.68</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>72.09999999999999</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>51</v>
       </c>
       <c r="D8" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
         <v>64.84</v>
       </c>
     </row>
@@ -600,6 +617,1846 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014851</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +5150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4831,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6210,2000 +8067,6 @@
       </c>
       <c r="H36" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>112.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.6337</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009714</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.3822</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010336</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1178</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501065</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富经典成长定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4856</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002387</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4549</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全沪港深两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4191</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011162</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时港股通领先趋势混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2387</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9594</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011296</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008371</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安汇智精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7632</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6226</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012744</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5882</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3881</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3843</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3541</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009877</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银内核驱动股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3075</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012208</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18.32</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2968</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004871</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银金融地产混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2355</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011163</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时港股通领先趋势混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2274</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2152</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2050</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008290</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安现代生活混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1566</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1294</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005534</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>70.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0924</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008026</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005029</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银产业精选混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007280</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>上投摩根日本精选股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>61.27</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010312</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中银金融地产混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>012758</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>43.76</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>78.68</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007512</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>011297</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>74.18</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>378006</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>78.68</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8268,36 +8131,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001875</t>
+          <t>005379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
+          <t>汇添富价值创造定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>173.54</t>
+          <t>112.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>95.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.8160</t>
+          <t>5.6337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8306,36 +8169,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>009714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>华安聚优精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>101.17</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>82.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.9147</t>
+          <t>3.3822</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8344,36 +8207,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005379</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富价值创造定期开放混合</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>132.50</t>
+          <t>59.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.9828</t>
+          <t>3.1178</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8382,36 +8245,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>74.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.4698</t>
+          <t>1.4856</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8420,36 +8283,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>31.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.2254</t>
+          <t>1.4549</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -8458,36 +8321,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>141.39</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>85.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.6723</t>
+          <t>1.4191</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -8496,36 +8359,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>011162</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>博时港股通领先趋势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>38.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.02</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.3241</t>
+          <t>1.2387</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -8534,36 +8397,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31.42</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>82.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.1837</t>
+          <t>0.9594</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -8572,36 +8435,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>011296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>19.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77.45</t>
+          <t>74.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.0180</t>
+          <t>0.8204</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -8610,36 +8473,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002387</t>
+          <t>008371</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>华安汇智精选两年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.9847</t>
+          <t>0.7632</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -8648,36 +8511,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006299</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒越核心精选混合A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>60.32</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.9785</t>
+          <t>0.6226</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -8686,36 +8549,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001874</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>43.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.8372</t>
+          <t>0.5882</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -8724,36 +8587,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.6127</t>
+          <t>0.3881</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -8762,36 +8625,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36.23</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5543</t>
+          <t>0.3843</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -8800,32 +8663,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>48.21</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5427</t>
+          <t>0.3541</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -8838,36 +8701,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>009877</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>中银内核驱动股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.2034</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -8876,36 +8739,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>012208</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37.87</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.2005</t>
+          <t>0.2968</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -8914,32 +8777,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007193</t>
+          <t>004871</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恒越核心精选混合C</t>
+          <t>中银金融地产混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.9558</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -8952,36 +8815,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>011163</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>博时港股通领先趋势混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.9158</t>
+          <t>0.2274</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -8990,36 +8853,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.29</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.7703</t>
+          <t>0.2152</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -9028,36 +8891,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>008025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>汇添富稳健增长混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.5676</t>
+          <t>0.2050</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -9066,36 +8929,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.5305</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -9104,36 +8967,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>008290</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>华安现代生活混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>86.24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.4976</t>
+          <t>0.1566</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -9142,32 +9005,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009877</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银内核驱动股票</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.4186</t>
+          <t>0.1294</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -9180,32 +9043,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>005534</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>华夏新时代灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>70.39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.4110</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -9218,36 +9081,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -9256,36 +9119,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011163</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2854</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -9294,32 +9157,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008025</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇添富稳健增长混合A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2791</t>
+          <t>0.0797</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -9332,36 +9195,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2294</t>
+          <t>0.0785</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -9370,32 +9233,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005534</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1492</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -9408,32 +9271,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -9446,36 +9309,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>008026</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>汇添富稳健增长混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1223</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -9484,32 +9347,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1174</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -9522,36 +9385,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>005029</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>中银产业精选混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.0464</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -9560,36 +9423,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>007280</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>上投摩根日本精选股票（QDII）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -9598,36 +9461,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>61.27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -9636,36 +9499,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008026</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>汇添富稳健增长混合C</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0988</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -9674,36 +9537,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>005255</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0979</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -9712,36 +9575,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>010312</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>中银金融地产混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0823</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -9750,32 +9613,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -9788,36 +9651,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005255</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>43.76</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9826,36 +9689,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007280</t>
+          <t>002230</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上投摩根日本精选股票（QDII）</t>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -9864,36 +9727,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005029</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中银产业精选混合</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -9902,32 +9765,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>004091</t>
+          <t>012209</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -9940,32 +9803,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -9978,36 +9841,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>080006</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长盛环球行业混合(QDII)</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -10016,32 +9879,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>011297</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>74.18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -10064,26 +9927,26 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -10092,36 +9955,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>378006</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -10140,26 +10003,26 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -10178,26 +10041,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10206,6 +10069,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.8160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>132.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9828</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>141.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9847</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7703</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根日本精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
